--- a/Data/Test SWV/Excel Files/Pbp6.xlsx
+++ b/Data/Test SWV/Excel Files/Pbp6.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A123"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Mar. 8, 2023   19:02:44</t>
+          <t>Mar. 8</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023   19:02:44</t>
         </is>
       </c>
     </row>
@@ -543,707 +548,2222 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Potential/V, Diff(i/A), For(i/A), Rev(i/A)</t>
+          <t>Potential/V</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Diff(i/A)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> For(i/A)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rev(i/A)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>-0.004, -1.101e-5, -5.833e-6, 5.181e-6</t>
+          <t>-0.004</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.101e-5</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -5.833e-6</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5.181e-6</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>-0.008, -1.117e-5, -6.104e-6, 5.062e-6</t>
+          <t>-0.008</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.117e-5</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.104e-6</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5.062e-6</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>-0.012, -1.116e-5, -6.171e-6, 4.987e-6</t>
+          <t>-0.012</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.116e-5</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.171e-6</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.987e-6</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>-0.016, -1.115e-5, -6.224e-6, 4.927e-6</t>
+          <t>-0.016</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.115e-5</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.224e-6</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.927e-6</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>-0.020, -1.114e-5, -6.264e-6, 4.879e-6</t>
+          <t>-0.020</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.114e-5</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.264e-6</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.879e-6</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>-0.024, -1.113e-5, -6.304e-6, 4.828e-6</t>
+          <t>-0.024</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.113e-5</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.304e-6</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.828e-6</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>-0.028, -1.113e-5, -6.334e-6, 4.792e-6</t>
+          <t>-0.028</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.113e-5</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.334e-6</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.792e-6</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>-0.032, -1.113e-5, -6.368e-6, 4.758e-6</t>
+          <t>-0.032</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.113e-5</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.368e-6</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.758e-6</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>-0.036, -1.113e-5, -6.399e-6, 4.732e-6</t>
+          <t>-0.036</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.113e-5</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.399e-6</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.732e-6</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>-0.040, -1.114e-5, -6.431e-6, 4.706e-6</t>
+          <t>-0.040</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.114e-5</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.431e-6</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.706e-6</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>-0.044, -1.114e-5, -6.459e-6, 4.683e-6</t>
+          <t>-0.044</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.114e-5</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.459e-6</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.683e-6</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>-0.048, -1.115e-5, -6.490e-6, 4.662e-6</t>
+          <t>-0.048</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.115e-5</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.490e-6</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.662e-6</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>-0.052, -1.116e-5, -6.519e-6, 4.645e-6</t>
+          <t>-0.052</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.116e-5</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.519e-6</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.645e-6</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>-0.056, -1.118e-5, -6.548e-6, 4.627e-6</t>
+          <t>-0.056</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.118e-5</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.548e-6</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.627e-6</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>-0.060, -1.119e-5, -6.574e-6, 4.611e-6</t>
+          <t>-0.060</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.119e-5</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.574e-6</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.611e-6</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>-0.064, -1.120e-5, -6.602e-6, 4.595e-6</t>
+          <t>-0.064</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.120e-5</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.602e-6</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.595e-6</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>-0.068, -1.121e-5, -6.627e-6, 4.582e-6</t>
+          <t>-0.068</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.121e-5</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.627e-6</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.582e-6</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>-0.072, -1.122e-5, -6.654e-6, 4.568e-6</t>
+          <t>-0.072</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.122e-5</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.654e-6</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.568e-6</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>-0.076, -1.123e-5, -6.676e-6, 4.554e-6</t>
+          <t>-0.076</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.123e-5</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.676e-6</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.554e-6</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>-0.080, -1.124e-5, -6.702e-6, 4.542e-6</t>
+          <t>-0.080</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.124e-5</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.702e-6</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.542e-6</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>-0.084, -1.126e-5, -6.723e-6, 4.532e-6</t>
+          <t>-0.084</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.126e-5</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.723e-6</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.532e-6</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>-0.088, -1.126e-5, -6.745e-6, 4.517e-6</t>
+          <t>-0.088</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.126e-5</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.745e-6</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.517e-6</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>-0.092, -1.127e-5, -6.765e-6, 4.506e-6</t>
+          <t>-0.092</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.127e-5</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.765e-6</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.506e-6</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>-0.096, -1.128e-5, -6.784e-6, 4.494e-6</t>
+          <t>-0.096</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.128e-5</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.784e-6</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.494e-6</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>-0.100, -1.129e-5, -6.802e-6, 4.483e-6</t>
+          <t>-0.100</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.129e-5</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.802e-6</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.483e-6</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>-0.104, -1.129e-5, -6.822e-6, 4.472e-6</t>
+          <t>-0.104</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.129e-5</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.822e-6</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.472e-6</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>-0.108, -1.130e-5, -6.837e-6, 4.460e-6</t>
+          <t>-0.108</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.130e-5</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.837e-6</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.460e-6</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>-0.112, -1.130e-5, -6.854e-6, 4.449e-6</t>
+          <t>-0.112</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.130e-5</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.854e-6</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.449e-6</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>-0.116, -1.131e-5, -6.870e-6, 4.438e-6</t>
+          <t>-0.116</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.131e-5</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.870e-6</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.438e-6</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>-0.120, -1.131e-5, -6.885e-6, 4.427e-6</t>
+          <t>-0.120</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.131e-5</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.885e-6</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.427e-6</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>-0.124, -1.131e-5, -6.899e-6, 4.416e-6</t>
+          <t>-0.124</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.131e-5</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.899e-6</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.416e-6</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>-0.128, -1.132e-5, -6.913e-6, 4.406e-6</t>
+          <t>-0.128</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.132e-5</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.913e-6</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.406e-6</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>-0.132, -1.133e-5, -6.928e-6, 4.398e-6</t>
+          <t>-0.132</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.133e-5</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.928e-6</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.398e-6</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>-0.136, -1.133e-5, -6.942e-6, 4.390e-6</t>
+          <t>-0.136</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.133e-5</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.942e-6</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.390e-6</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>-0.140, -1.134e-5, -6.955e-6, 4.383e-6</t>
+          <t>-0.140</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.134e-5</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.955e-6</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.383e-6</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>-0.144, -1.135e-5, -6.972e-6, 4.377e-6</t>
+          <t>-0.144</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.135e-5</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.972e-6</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.377e-6</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>-0.148, -1.136e-5, -6.986e-6, 4.372e-6</t>
+          <t>-0.148</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.136e-5</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -6.986e-6</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.372e-6</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>-0.152, -1.137e-5, -7.002e-6, 4.367e-6</t>
+          <t>-0.152</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.137e-5</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.002e-6</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.367e-6</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>-0.156, -1.138e-5, -7.017e-6, 4.364e-6</t>
+          <t>-0.156</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.138e-5</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.017e-6</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.364e-6</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>-0.160, -1.139e-5, -7.032e-6, 4.360e-6</t>
+          <t>-0.160</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.139e-5</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.032e-6</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.360e-6</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>-0.164, -1.141e-5, -7.047e-6, 4.359e-6</t>
+          <t>-0.164</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.141e-5</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.047e-6</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.359e-6</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>-0.168, -1.142e-5, -7.064e-6, 4.359e-6</t>
+          <t>-0.168</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.142e-5</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.064e-6</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.359e-6</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>-0.172, -1.144e-5, -7.078e-6, 4.359e-6</t>
+          <t>-0.172</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.144e-5</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.078e-6</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.359e-6</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>-0.176, -1.145e-5, -7.095e-6, 4.357e-6</t>
+          <t>-0.176</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.145e-5</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.095e-6</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.357e-6</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>-0.180, -1.147e-5, -7.109e-6, 4.359e-6</t>
+          <t>-0.180</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.147e-5</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.109e-6</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.359e-6</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>-0.184, -1.148e-5, -7.124e-6, 4.359e-6</t>
+          <t>-0.184</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.148e-5</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.124e-6</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.359e-6</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>-0.188, -1.149e-5, -7.134e-6, 4.359e-6</t>
+          <t>-0.188</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.149e-5</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.134e-6</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.359e-6</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>-0.192, -1.150e-5, -7.145e-6, 4.358e-6</t>
+          <t>-0.192</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.150e-5</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.145e-6</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.358e-6</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>-0.196, -1.151e-5, -7.155e-6, 4.359e-6</t>
+          <t>-0.196</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.151e-5</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.155e-6</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.359e-6</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>-0.200, -1.152e-5, -7.165e-6, 4.357e-6</t>
+          <t>-0.200</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.152e-5</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.165e-6</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.357e-6</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>-0.204, -1.153e-5, -7.173e-6, 4.355e-6</t>
+          <t>-0.204</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.153e-5</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.173e-6</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.355e-6</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>-0.208, -1.153e-5, -7.181e-6, 4.352e-6</t>
+          <t>-0.208</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.153e-5</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.181e-6</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.352e-6</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>-0.212, -1.154e-5, -7.187e-6, 4.350e-6</t>
+          <t>-0.212</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.154e-5</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.187e-6</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.350e-6</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>-0.216, -1.154e-5, -7.196e-6, 4.345e-6</t>
+          <t>-0.216</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.154e-5</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.196e-6</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.345e-6</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>-0.220, -1.154e-5, -7.202e-6, 4.341e-6</t>
+          <t>-0.220</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.154e-5</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.202e-6</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.341e-6</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>-0.224, -1.155e-5, -7.210e-6, 4.338e-6</t>
+          <t>-0.224</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.155e-5</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.210e-6</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.338e-6</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>-0.228, -1.155e-5, -7.218e-6, 4.332e-6</t>
+          <t>-0.228</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.155e-5</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.218e-6</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.332e-6</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>-0.232, -1.156e-5, -7.229e-6, 4.329e-6</t>
+          <t>-0.232</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.156e-5</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.229e-6</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.329e-6</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>-0.236, -1.157e-5, -7.238e-6, 4.327e-6</t>
+          <t>-0.236</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.157e-5</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.238e-6</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.327e-6</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>-0.240, -1.157e-5, -7.250e-6, 4.323e-6</t>
+          <t>-0.240</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.157e-5</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.250e-6</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.323e-6</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>-0.244, -1.158e-5, -7.261e-6, 4.323e-6</t>
+          <t>-0.244</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.158e-5</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.261e-6</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.323e-6</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>-0.248, -1.160e-5, -7.277e-6, 4.321e-6</t>
+          <t>-0.248</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.160e-5</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.277e-6</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.321e-6</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>-0.252, -1.161e-5, -7.290e-6, 4.320e-6</t>
+          <t>-0.252</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.161e-5</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.290e-6</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.320e-6</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>-0.256, -1.163e-5, -7.306e-6, 4.320e-6</t>
+          <t>-0.256</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.163e-5</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.306e-6</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.320e-6</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>-0.260, -1.164e-5, -7.322e-6, 4.322e-6</t>
+          <t>-0.260</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.164e-5</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.322e-6</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.322e-6</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>-0.264, -1.166e-5, -7.341e-6, 4.322e-6</t>
+          <t>-0.264</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.166e-5</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.341e-6</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.322e-6</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>-0.268, -1.168e-5, -7.357e-6, 4.324e-6</t>
+          <t>-0.268</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.168e-5</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.357e-6</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.324e-6</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>-0.272, -1.170e-5, -7.378e-6, 4.325e-6</t>
+          <t>-0.272</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.170e-5</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.378e-6</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.325e-6</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>-0.276, -1.172e-5, -7.397e-6, 4.328e-6</t>
+          <t>-0.276</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.172e-5</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.397e-6</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.328e-6</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>-0.280, -1.175e-5, -7.420e-6, 4.328e-6</t>
+          <t>-0.280</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.175e-5</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.420e-6</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.328e-6</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>-0.284, -1.178e-5, -7.443e-6, 4.333e-6</t>
+          <t>-0.284</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.178e-5</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.443e-6</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.333e-6</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>-0.288, -1.180e-5, -7.465e-6, 4.334e-6</t>
+          <t>-0.288</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.180e-5</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.465e-6</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.334e-6</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>-0.292, -1.183e-5, -7.488e-6, 4.337e-6</t>
+          <t>-0.292</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.183e-5</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.488e-6</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.337e-6</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>-0.296, -1.185e-5, -7.514e-6, 4.340e-6</t>
+          <t>-0.296</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.185e-5</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.514e-6</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.340e-6</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>-0.300, -1.188e-5, -7.537e-6, 4.341e-6</t>
+          <t>-0.300</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.188e-5</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.537e-6</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.341e-6</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>-0.304, -1.191e-5, -7.566e-6, 4.344e-6</t>
+          <t>-0.304</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.191e-5</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.566e-6</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.344e-6</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>-0.308, -1.194e-5, -7.592e-6, 4.347e-6</t>
+          <t>-0.308</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.194e-5</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.592e-6</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.347e-6</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>-0.312, -1.197e-5, -7.622e-6, 4.347e-6</t>
+          <t>-0.312</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.197e-5</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.622e-6</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.347e-6</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>-0.316, -1.200e-5, -7.651e-6, 4.348e-6</t>
+          <t>-0.316</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.200e-5</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.651e-6</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.348e-6</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>-0.320, -1.203e-5, -7.681e-6, 4.349e-6</t>
+          <t>-0.320</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.203e-5</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.681e-6</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.349e-6</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>-0.324, -1.206e-5, -7.714e-6, 4.350e-6</t>
+          <t>-0.324</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.206e-5</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.714e-6</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.350e-6</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>-0.328, -1.210e-5, -7.749e-6, 4.350e-6</t>
+          <t>-0.328</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.210e-5</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.749e-6</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.350e-6</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>-0.332, -1.213e-5, -7.782e-6, 4.347e-6</t>
+          <t>-0.332</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.213e-5</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.782e-6</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.347e-6</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>-0.336, -1.216e-5, -7.819e-6, 4.346e-6</t>
+          <t>-0.336</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.216e-5</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.819e-6</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.346e-6</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>-0.340, -1.220e-5, -7.856e-6, 4.346e-6</t>
+          <t>-0.340</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.220e-5</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.856e-6</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.346e-6</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>-0.344, -1.224e-5, -7.898e-6, 4.342e-6</t>
+          <t>-0.344</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.224e-5</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.898e-6</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.342e-6</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>-0.348, -1.227e-5, -7.937e-6, 4.338e-6</t>
+          <t>-0.348</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.227e-5</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.937e-6</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.338e-6</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>-0.352, -1.232e-5, -7.981e-6, 4.334e-6</t>
+          <t>-0.352</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.232e-5</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -7.981e-6</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.334e-6</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>-0.356, -1.236e-5, -8.027e-6, 4.329e-6</t>
+          <t>-0.356</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.236e-5</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.027e-6</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.329e-6</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>-0.360, -1.240e-5, -8.076e-6, 4.323e-6</t>
+          <t>-0.360</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.240e-5</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.076e-6</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.323e-6</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>-0.364, -1.244e-5, -8.125e-6, 4.315e-6</t>
+          <t>-0.364</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.244e-5</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.125e-6</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.315e-6</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>-0.368, -1.248e-5, -8.180e-6, 4.305e-6</t>
+          <t>-0.368</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.248e-5</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.180e-6</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.305e-6</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>-0.372, -1.253e-5, -8.233e-6, 4.297e-6</t>
+          <t>-0.372</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.253e-5</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.233e-6</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.297e-6</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>-0.376, -1.258e-5, -8.292e-6, 4.285e-6</t>
+          <t>-0.376</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.258e-5</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.292e-6</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.285e-6</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>-0.380, -1.262e-5, -8.353e-6, 4.270e-6</t>
+          <t>-0.380</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.262e-5</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.353e-6</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.270e-6</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>-0.384, -1.267e-5, -8.417e-6, 4.254e-6</t>
+          <t>-0.384</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.267e-5</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.417e-6</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.254e-6</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>-0.388, -1.273e-5, -8.489e-6, 4.240e-6</t>
+          <t>-0.388</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.273e-5</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.489e-6</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.240e-6</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>-0.392, -1.278e-5, -8.560e-6, 4.221e-6</t>
+          <t>-0.392</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.278e-5</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.560e-6</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.221e-6</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>-0.396, -1.283e-5, -8.633e-6, 4.200e-6</t>
+          <t>-0.396</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.283e-5</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.633e-6</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.200e-6</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>-0.400, -1.289e-5, -8.713e-6, 4.177e-6</t>
+          <t>-0.400</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -1.289e-5</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -8.713e-6</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.177e-6</t>
         </is>
       </c>
     </row>
